--- a/Data Files/DF_edit_pro.xlsx
+++ b/Data Files/DF_edit_pro.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
   <si>
     <t>Cate</t>
   </si>
@@ -53,7 +53,7 @@
     <t>E:\xamxi\meme\meme\z4108070149236_7d30f3c2558548c63ff95d6f4b8a6b79.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">Mô tả san phẩm </t>
+    <t xml:space="preserve">Mô tả sản phẩm  </t>
   </si>
   <si>
     <t>E:\xamxi\meme\caythong.py</t>
@@ -63,6 +63,12 @@
   </si>
   <si>
     <t>12000000,0</t>
+  </si>
+  <si>
+    <t>Iphone XXXL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mô tả sản phẩm </t>
   </si>
   <si>
     <t xml:space="preserve">Mô tả trống </t>
@@ -1003,10 +1009,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1066,7 +1072,7 @@
         <v>8</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F12" si="0">CONCATENATE("The product “",B3,"” was changed successfully.")</f>
+        <f>CONCATENATE("The product “",B3,"” was changed successfully.")</f>
         <v>The product “” was changed successfully.</v>
       </c>
     </row>
@@ -1084,7 +1090,7 @@
         <v>8</v>
       </c>
       <c r="F4" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("The product “",B4,"” was changed successfully.")</f>
         <v>The product “Máy Tính X” was changed successfully.</v>
       </c>
     </row>
@@ -1105,7 +1111,7 @@
         <v>8</v>
       </c>
       <c r="F5" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("The product “",B5,"” was changed successfully.")</f>
         <v>The product “Máy Tính X” was changed successfully.</v>
       </c>
     </row>
@@ -1123,7 +1129,7 @@
         <v>7</v>
       </c>
       <c r="F6" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("The product “",B6,"” was changed successfully.")</f>
         <v>The product “Máy Tính X” was changed successfully.</v>
       </c>
     </row>
@@ -1141,7 +1147,7 @@
         <v>8</v>
       </c>
       <c r="F7" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("The product “",B7,"” was changed successfully.")</f>
         <v>The product “Iphone X” was changed successfully.</v>
       </c>
     </row>
@@ -1150,17 +1156,14 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8">
-        <v>100</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
       </c>
       <c r="F8" t="str">
-        <f t="shared" si="0"/>
-        <v>The product “Iphone X” was changed successfully.</v>
+        <f>CONCATENATE("The product “",B8,"” was changed successfully.")</f>
+        <v>The product “Iphone XXXL” was changed successfully.</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1170,36 +1173,33 @@
       <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="C9" t="s">
-        <v>11</v>
+      <c r="C9">
+        <v>100</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F9" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("The product “",B9,"” was changed successfully.")</f>
         <v>The product “Iphone X” was changed successfully.</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10">
-        <v>100</v>
-      </c>
-      <c r="D10" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F10" t="str">
-        <f t="shared" si="0"/>
-        <v>The product “########” was changed successfully.</v>
+        <f>CONCATENATE("The product “",B10,"” was changed successfully.")</f>
+        <v>The product “Iphone X” was changed successfully.</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1207,10 +1207,10 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C11">
-        <v>-1</v>
+        <v>100</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
@@ -1219,19 +1219,40 @@
         <v>8</v>
       </c>
       <c r="F11" t="str">
-        <f t="shared" si="0"/>
-        <v>The product “Máy Tính X” was changed successfully.</v>
+        <f>CONCATENATE("The product “",B11,"” was changed successfully.")</f>
+        <v>The product “########” was changed successfully.</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
         <v>3</v>
       </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>-1</v>
+      </c>
       <c r="D12" t="s">
         <v>7</v>
       </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
       <c r="F12" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("The product “",B12,"” was changed successfully.")</f>
+        <v>The product “Máy Tính X” was changed successfully.</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="str">
+        <f>CONCATENATE("The product “",B13,"” was changed successfully.")</f>
         <v>The product “” was changed successfully.</v>
       </c>
     </row>
